--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>-21.8444208669552</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.42164184454945</v>
+        <v>-11.03725581121765</v>
       </c>
       <c r="F2" t="n">
-        <v>1.578787296801441</v>
+        <v>0.07943155986283167</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.73400501853238</v>
+        <v>-13.75281067438375</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-22.22105434601408</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.98293894492622</v>
+        <v>-11.61773737454019</v>
       </c>
       <c r="F3" t="n">
-        <v>1.650225465140802</v>
+        <v>0.1738676165041608</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.40975141609798</v>
+        <v>-13.35502151966408</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-22.63710861683129</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.1931466841761</v>
+        <v>-11.92080691022025</v>
       </c>
       <c r="F4" t="n">
-        <v>1.639454983012989</v>
+        <v>0.1577387828502084</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.91410389993014</v>
+        <v>-13.02146902616881</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-23.0051715916706</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.80593480487522</v>
+        <v>-12.4310383338721</v>
       </c>
       <c r="F5" t="n">
-        <v>1.910838865188571</v>
+        <v>0.4166752535426248</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.36865207080904</v>
+        <v>-12.56599936843328</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-23.28222726160499</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.35931171412759</v>
+        <v>-12.97140070684474</v>
       </c>
       <c r="F6" t="n">
-        <v>1.918817724395376</v>
+        <v>0.4142747511709696</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.21628128279477</v>
+        <v>-12.39077736232305</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-23.41843614681792</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.20263606462921</v>
+        <v>-13.80866757783826</v>
       </c>
       <c r="F7" t="n">
-        <v>2.039307298630495</v>
+        <v>0.5638539162642324</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.81583739734637</v>
+        <v>-12.09938766404805</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-23.37564003705486</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.02036157517567</v>
+        <v>-14.48918311066475</v>
       </c>
       <c r="F8" t="n">
-        <v>2.236960068246132</v>
+        <v>0.6716271836385055</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.46733432085207</v>
+        <v>-11.79684125210276</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-23.11781575059328</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.68403447934564</v>
+        <v>-15.18585192217953</v>
       </c>
       <c r="F9" t="n">
-        <v>2.409639790785568</v>
+        <v>0.8435148870655013</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.47221354970525</v>
+        <v>-11.75393043883184</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-22.64164779309876</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.58651581293694</v>
+        <v>-16.01028026114053</v>
       </c>
       <c r="F10" t="n">
-        <v>2.76846844978279</v>
+        <v>1.18369687387231</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.07966052134005</v>
+        <v>-11.56876908176117</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-21.94831259449331</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.37890160089218</v>
+        <v>-16.83779845244142</v>
       </c>
       <c r="F11" t="n">
-        <v>2.84079641737193</v>
+        <v>1.277111128078454</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.51197837799509</v>
+        <v>-10.99148981793646</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-21.0805421281699</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.45659516257998</v>
+        <v>-17.75978692343171</v>
       </c>
       <c r="F12" t="n">
-        <v>3.16660472399001</v>
+        <v>1.59281385750262</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.13451771382805</v>
+        <v>-10.64329474887477</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-20.07714609429567</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.26354041298489</v>
+        <v>-18.59552353527588</v>
       </c>
       <c r="F13" t="n">
-        <v>3.588237565199622</v>
+        <v>2.012979996652158</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.71157950778498</v>
+        <v>-10.37332378968373</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-19.01640071878351</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.61430456421735</v>
+        <v>-19.728052197983</v>
       </c>
       <c r="F14" t="n">
-        <v>3.707245770354065</v>
+        <v>2.179269787216536</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.27513786477548</v>
+        <v>-9.944797448791768</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-17.9655420717755</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.31286053238276</v>
+        <v>-20.5611536351259</v>
       </c>
       <c r="F15" t="n">
-        <v>3.985273812861784</v>
+        <v>2.434705728992241</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.687459683344834</v>
+        <v>-9.484688123539536</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-16.99565432252159</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.41081902753392</v>
+        <v>-21.55639409600318</v>
       </c>
       <c r="F16" t="n">
-        <v>4.001818212099424</v>
+        <v>2.531918741533978</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.557666329041975</v>
+        <v>-9.281320104896475</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.17401563959942</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.64660840427715</v>
+        <v>-22.71288867037191</v>
       </c>
       <c r="F17" t="n">
-        <v>4.37867752842183</v>
+        <v>2.865187672630969</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.243479191746554</v>
+        <v>-9.049571401390972</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.54038525203703</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.47237633111968</v>
+        <v>-23.58850491122951</v>
       </c>
       <c r="F18" t="n">
-        <v>4.675645583531978</v>
+        <v>3.181125074384747</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.990458419363103</v>
+        <v>-8.924104818165334</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.13010619001226</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.43732450544955</v>
+        <v>-24.60516411119074</v>
       </c>
       <c r="F19" t="n">
-        <v>4.820457966929999</v>
+        <v>3.410072376955507</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.481781699894938</v>
+        <v>-8.579698729425511</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.9392294981855</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.30158358335531</v>
+        <v>-25.44457725619884</v>
       </c>
       <c r="F20" t="n">
-        <v>5.116213548337151</v>
+        <v>3.79837685835336</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.139384992977416</v>
+        <v>-8.399079259734204</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.96584033657006</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.07943435389521</v>
+        <v>-26.19615450383594</v>
       </c>
       <c r="F21" t="n">
-        <v>5.317660187281515</v>
+        <v>4.140548670955003</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.718529503859644</v>
+        <v>-8.076292359359879</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.1737664495812</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.55214753885035</v>
+        <v>-26.73560263252446</v>
       </c>
       <c r="F22" t="n">
-        <v>5.40460628540273</v>
+        <v>4.289081588578746</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.448837218060015</v>
+        <v>-7.901847705341487</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-15.52415752835783</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.07157273991543</v>
+        <v>-27.22523422574256</v>
       </c>
       <c r="F23" t="n">
-        <v>5.442364085435914</v>
+        <v>4.331249272805888</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.081785249512641</v>
+        <v>-7.76400215672882</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-15.9675417181675</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.4026049503708</v>
+        <v>-27.61941040438758</v>
       </c>
       <c r="F24" t="n">
-        <v>5.663068522429056</v>
+        <v>4.533698158157969</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.951713221818369</v>
+        <v>-7.675403574286586</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-16.44079234937291</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.63905687848228</v>
+        <v>-27.79651956714844</v>
       </c>
       <c r="F25" t="n">
-        <v>5.43454167444885</v>
+        <v>4.397666431092928</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.631277933747029</v>
+        <v>-7.455598714556958</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-16.89211283949698</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.73869728293344</v>
+        <v>-27.91757626618012</v>
       </c>
       <c r="F26" t="n">
-        <v>5.573394358476102</v>
+        <v>4.61361386440456</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.36020694801093</v>
+        <v>-7.277081517818425</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-17.26110237842049</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.86023799364495</v>
+        <v>-28.03947142988948</v>
       </c>
       <c r="F27" t="n">
-        <v>5.517825906426746</v>
+        <v>4.610025333364245</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.194000270563289</v>
+        <v>-7.183261476042327</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-17.51208677984382</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.68241259137808</v>
+        <v>-27.95014927443095</v>
       </c>
       <c r="F28" t="n">
-        <v>5.474274633256268</v>
+        <v>4.580085055311258</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.959166603724763</v>
+        <v>-6.932558092913796</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-17.60963878425171</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.71392468513878</v>
+        <v>-27.94801766743697</v>
       </c>
       <c r="F29" t="n">
-        <v>5.362291930969581</v>
+        <v>4.516249292649949</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.57774095498866</v>
+        <v>-6.636826956540977</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-17.546536226254</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.47252019307112</v>
+        <v>-27.7701335970877</v>
       </c>
       <c r="F30" t="n">
-        <v>5.316164151180239</v>
+        <v>4.4522717487895</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.77984272085319</v>
+        <v>-6.747044727348708</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-17.32704482443823</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.34778451637209</v>
+        <v>-27.69086323974754</v>
       </c>
       <c r="F31" t="n">
-        <v>5.37546291546905</v>
+        <v>4.402032314225083</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.833260009881103</v>
+        <v>-6.702124532255493</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-16.96618160667188</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.93688304523535</v>
+        <v>-27.28295384081336</v>
       </c>
       <c r="F32" t="n">
-        <v>5.320882042806812</v>
+        <v>4.323373082743288</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.742691157671503</v>
+        <v>-6.597133109788495</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-16.50036190414221</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.62035651815411</v>
+        <v>-26.95574238922448</v>
       </c>
       <c r="F33" t="n">
-        <v>5.181789797443082</v>
+        <v>4.102507308523538</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.568442063927788</v>
+        <v>-6.41500782598218</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-15.96127272977072</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.2872171457391</v>
+        <v>-26.61781912359018</v>
       </c>
       <c r="F34" t="n">
-        <v>5.300040206533153</v>
+        <v>4.149647112734332</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.484072472425437</v>
+        <v>-6.314348063599268</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-15.393804397974</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.00361563540309</v>
+        <v>-26.28738337197257</v>
       </c>
       <c r="F35" t="n">
-        <v>5.373086858131729</v>
+        <v>4.202145268471265</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.734042504523931</v>
+        <v>-6.359654490234968</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-14.82526782025984</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.3618014809351</v>
+        <v>-25.61093060385248</v>
       </c>
       <c r="F36" t="n">
-        <v>5.404107606702305</v>
+        <v>4.159097563008078</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.846572775579713</v>
+        <v>-6.413697572141846</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-14.29489105151284</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.87949117550021</v>
+        <v>-25.22038206830272</v>
       </c>
       <c r="F37" t="n">
-        <v>5.315641027445479</v>
+        <v>4.038236424251074</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.874039216158041</v>
+        <v>-6.427039671881658</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.82440334432662</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.3694308670887</v>
+        <v>-24.72356607949369</v>
       </c>
       <c r="F38" t="n">
-        <v>5.248436739052866</v>
+        <v>4.00802236181354</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.762413411372639</v>
+        <v>-6.244645492697662</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.43399951909199</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.83886117487049</v>
+        <v>-24.19828140369861</v>
       </c>
       <c r="F39" t="n">
-        <v>5.134508212033147</v>
+        <v>3.904033185754259</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.888769793848055</v>
+        <v>-6.289379905529933</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-13.14036491712757</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.27024034220708</v>
+        <v>-23.65248245508996</v>
       </c>
       <c r="F40" t="n">
-        <v>5.203702326220594</v>
+        <v>3.925134139391864</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.661225636248099</v>
+        <v>-6.02834605089161</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.94476355973536</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.90120832587861</v>
+        <v>-23.23331856234814</v>
       </c>
       <c r="F41" t="n">
-        <v>5.209466465316686</v>
+        <v>3.854458656123741</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.827999438492302</v>
+        <v>-6.011576757338092</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.85125715983543</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.24442892139099</v>
+        <v>-22.57378175798758</v>
       </c>
       <c r="F42" t="n">
-        <v>5.141704830141245</v>
+        <v>3.79121446329333</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.775022160082412</v>
+        <v>-5.880390036078163</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.84288059403079</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.75846163881964</v>
+        <v>-22.11458667701946</v>
       </c>
       <c r="F43" t="n">
-        <v>5.100588282390491</v>
+        <v>3.780967104900276</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.933934439284616</v>
+        <v>-5.943810233155784</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.9108258962879</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.98818882892346</v>
+        <v>-21.37641019720457</v>
       </c>
       <c r="F44" t="n">
-        <v>5.062664256123831</v>
+        <v>3.764300480490963</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.958961265436353</v>
+        <v>-5.891228964302114</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-13.02924540841107</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.39602253918899</v>
+        <v>-20.81113344523813</v>
       </c>
       <c r="F45" t="n">
-        <v>5.065988780793334</v>
+        <v>3.74259329000186</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.023065923475342</v>
+        <v>-5.859289082440558</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-13.17934870948129</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.82252247767239</v>
+        <v>-20.2375356035842</v>
       </c>
       <c r="F46" t="n">
-        <v>5.055536084111869</v>
+        <v>3.70975871988366</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.88144117255455</v>
+        <v>-5.713176223215938</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-13.34174598495233</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.26102981702095</v>
+        <v>-19.65078633345827</v>
       </c>
       <c r="F47" t="n">
-        <v>5.122339473941396</v>
+        <v>3.795189225876131</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.053504880228754</v>
+        <v>-5.824978032248549</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-13.49262472393045</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.62519491795119</v>
+        <v>-19.05417104747491</v>
       </c>
       <c r="F48" t="n">
-        <v>5.085271023876446</v>
+        <v>3.695331260619394</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.063190002832113</v>
+        <v>-5.838398356098231</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-13.62210281518432</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.12843759722456</v>
+        <v>-18.58335479718413</v>
       </c>
       <c r="F49" t="n">
-        <v>5.00144900114319</v>
+        <v>3.649599490386271</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.148268500330166</v>
+        <v>-5.805172665430677</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-13.71278899913286</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.5929251190639</v>
+        <v>-18.11858624838773</v>
       </c>
       <c r="F50" t="n">
-        <v>4.92780589070685</v>
+        <v>3.546817899023118</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.400516809628644</v>
+        <v>-6.002708098881508</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-13.76396823064274</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.08279636455626</v>
+        <v>-17.52821422417341</v>
       </c>
       <c r="F51" t="n">
-        <v>4.901419920646109</v>
+        <v>3.521908409036187</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.362323887984304</v>
+        <v>-6.0051770473493</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-13.76894130926159</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.42499515763346</v>
+        <v>-17.01287867735251</v>
       </c>
       <c r="F52" t="n">
-        <v>4.887794258508018</v>
+        <v>3.46691197079026</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.69449279253624</v>
+        <v>-6.223383201833448</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.73641774376722</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.04714826192393</v>
+        <v>-16.54563140207458</v>
       </c>
       <c r="F53" t="n">
-        <v>5.050999085739373</v>
+        <v>3.672602267695106</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.964522419809686</v>
+        <v>-6.424878730846481</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.67600636969365</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.52732949580607</v>
+        <v>-16.00234051398866</v>
       </c>
       <c r="F54" t="n">
-        <v>5.024446889445158</v>
+        <v>3.530576618211227</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.12844104204361</v>
+        <v>-6.673000718349281</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.59485994474651</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.23213615018861</v>
+        <v>-15.69015786950867</v>
       </c>
       <c r="F55" t="n">
-        <v>4.88568220754151</v>
+        <v>3.417122324857598</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.452846203690885</v>
+        <v>-6.840258532273308</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.51376478597774</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.79361179025381</v>
+        <v>-15.20081717219916</v>
       </c>
       <c r="F56" t="n">
-        <v>4.755551511764835</v>
+        <v>3.312766473283299</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.720988674313702</v>
+        <v>-7.056792646408971</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.44057420130889</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.41049943414862</v>
+        <v>-14.80811258462108</v>
       </c>
       <c r="F57" t="n">
-        <v>4.821284209090507</v>
+        <v>3.380816559863888</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.03101526676538</v>
+        <v>-7.272696078658803</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.39379384902114</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.1003163934772</v>
+        <v>-14.52774759683097</v>
       </c>
       <c r="F58" t="n">
-        <v>4.716503013918786</v>
+        <v>3.256117550716355</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.363311285495854</v>
+        <v>-7.557593175814538</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.377821965397</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.80391057415675</v>
+        <v>-14.20478958121631</v>
       </c>
       <c r="F59" t="n">
-        <v>4.792160395184294</v>
+        <v>3.332346945785293</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.3852189252665</v>
+        <v>-7.65123232433656</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.40452426207787</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.38183772232911</v>
+        <v>-13.8627302157726</v>
       </c>
       <c r="F60" t="n">
-        <v>4.687300975902702</v>
+        <v>3.223879439435918</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.64915684998377</v>
+        <v>-7.85544125216073</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.4755834132133</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.08559812924214</v>
+        <v>-13.67102247850713</v>
       </c>
       <c r="F61" t="n">
-        <v>4.556348926972386</v>
+        <v>3.089954874330517</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.853140883492063</v>
+        <v>-8.039106573130123</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.58817442132215</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.86777820630047</v>
+        <v>-13.41932173797775</v>
       </c>
       <c r="F62" t="n">
-        <v>4.527283781148577</v>
+        <v>3.04025323052146</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.967382306951265</v>
+        <v>-8.119692073317482</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.74296568558343</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.68745207702118</v>
+        <v>-13.19967332646786</v>
       </c>
       <c r="F63" t="n">
-        <v>4.469798838407391</v>
+        <v>3.031404128092344</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.032640770610845</v>
+        <v>-8.136740040262415</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.92584044919335</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.70589829993005</v>
+        <v>-13.2502061014443</v>
       </c>
       <c r="F64" t="n">
-        <v>4.358945496706961</v>
+        <v>2.900266296901084</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.191856168238798</v>
+        <v>-8.210260925527082</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.13346719638106</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.58693409583741</v>
+        <v>-13.08566168633141</v>
       </c>
       <c r="F65" t="n">
-        <v>4.424042623139933</v>
+        <v>2.95348802565432</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.137681083146513</v>
+        <v>-8.1082077961871</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.349413554918</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.42413505617601</v>
+        <v>-12.8957775486273</v>
       </c>
       <c r="F66" t="n">
-        <v>4.30249702342156</v>
+        <v>2.874799460131324</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.333749814537271</v>
+        <v>-8.27303577369827</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.56860358555308</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.58892392163225</v>
+        <v>-13.01877029437828</v>
       </c>
       <c r="F67" t="n">
-        <v>4.191369897336584</v>
+        <v>2.74593501713318</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.476425701934449</v>
+        <v>-8.39913303880974</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.77712372467848</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.33113636755355</v>
+        <v>-12.75509148702495</v>
       </c>
       <c r="F68" t="n">
-        <v>4.182330123639658</v>
+        <v>2.731091992285226</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.596568156682018</v>
+        <v>-8.477650489092394</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.96663124655141</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.48028530004253</v>
+        <v>-12.82724833937375</v>
       </c>
       <c r="F69" t="n">
-        <v>4.224849816361218</v>
+        <v>2.733076929073194</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.626840887201954</v>
+        <v>-8.475132650555933</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.13109345142938</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.44658537570889</v>
+        <v>-12.76598908333131</v>
       </c>
       <c r="F70" t="n">
-        <v>4.313917743462675</v>
+        <v>2.821851515762635</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.606717734937734</v>
+        <v>-8.501958631234695</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.25687002477408</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.77535642048831</v>
+        <v>-13.07479831307312</v>
       </c>
       <c r="F71" t="n">
-        <v>4.127993701320766</v>
+        <v>2.673880833928587</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.52279304306027</v>
+        <v>-8.391872863612372</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.34607188707735</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.81171107555069</v>
+        <v>-13.17022194910157</v>
       </c>
       <c r="F72" t="n">
-        <v>3.985821381630879</v>
+        <v>2.60888637663982</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.467165922928512</v>
+        <v>-8.228780483538957</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.39008913870905</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.98476236261201</v>
+        <v>-13.31036533094168</v>
       </c>
       <c r="F73" t="n">
-        <v>4.052253206938519</v>
+        <v>2.522297176019889</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.461225779585211</v>
+        <v>-8.287942355635494</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.39454775839101</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.2443246261834</v>
+        <v>-13.51461825982766</v>
       </c>
       <c r="F74" t="n">
-        <v>3.977593183073861</v>
+        <v>2.504022068351361</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.347390143695963</v>
+        <v>-8.168029684210671</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.35448845095535</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.64464628646013</v>
+        <v>-13.87256689758883</v>
       </c>
       <c r="F75" t="n">
-        <v>3.937190430325676</v>
+        <v>2.467442518973103</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.301927268840521</v>
+        <v>-8.151837293467448</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-15.27864297103645</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.81406015241246</v>
+        <v>-13.98621186221027</v>
       </c>
       <c r="F76" t="n">
-        <v>3.907704829911312</v>
+        <v>2.404897454124661</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.212482888210312</v>
+        <v>-8.146953175607401</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-15.17077111308308</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.27860380689299</v>
+        <v>-14.46669367907694</v>
       </c>
       <c r="F77" t="n">
-        <v>3.919193996048562</v>
+        <v>2.391452685240644</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.053761280275918</v>
+        <v>-7.946665231290496</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-15.03476540119644</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.55767320786336</v>
+        <v>-14.76177457753646</v>
       </c>
       <c r="F78" t="n">
-        <v>3.861366822826692</v>
+        <v>2.345760027062457</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.926260870193643</v>
+        <v>-7.840696007450115</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.88293671387551</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.85273943930228</v>
+        <v>-15.08508460164554</v>
       </c>
       <c r="F79" t="n">
-        <v>3.949999628316993</v>
+        <v>2.369139257900045</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.729258338491306</v>
+        <v>-7.565327584677997</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.71742528911865</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.46536133376792</v>
+        <v>-15.68600710267866</v>
       </c>
       <c r="F80" t="n">
-        <v>3.846372238765864</v>
+        <v>2.223261071005036</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.714635318952363</v>
+        <v>-7.539469627358883</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.55012815835337</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.00254585227707</v>
+        <v>-16.17595403683968</v>
       </c>
       <c r="F81" t="n">
-        <v>3.772186448567297</v>
+        <v>2.135723403052924</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.390963508335126</v>
+        <v>-7.256640580107854</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.37845260212505</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.84881338491258</v>
+        <v>-16.94854912499764</v>
       </c>
       <c r="F82" t="n">
-        <v>3.790329553050418</v>
+        <v>2.121300832795525</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.361898362511317</v>
+        <v>-7.25274893064179</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-14.21075512615076</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.61922308700104</v>
+        <v>-17.68692605409408</v>
       </c>
       <c r="F83" t="n">
-        <v>3.744563559769227</v>
+        <v>1.961655202563285</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.382192630015881</v>
+        <v>-7.241978448513976</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.0413029046603</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.72215859114272</v>
+        <v>-18.69992338791198</v>
       </c>
       <c r="F84" t="n">
-        <v>3.749305896430135</v>
+        <v>1.930761568171249</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.161830423503423</v>
+        <v>-6.997904558696981</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.87135919452314</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.77153013605047</v>
+        <v>-19.74106184525586</v>
       </c>
       <c r="F85" t="n">
-        <v>3.894304062089098</v>
+        <v>2.073334786424223</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.089067334303127</v>
+        <v>-6.966849587078337</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.6993493993402</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.95527603469539</v>
+        <v>-20.90071960706748</v>
       </c>
       <c r="F86" t="n">
-        <v>3.835464864445777</v>
+        <v>1.889645020420494</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.790485906926897</v>
+        <v>-6.799288654728561</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.5193240136477</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.93738462312813</v>
+        <v>-21.91350671359012</v>
       </c>
       <c r="F87" t="n">
-        <v>3.834218167694713</v>
+        <v>1.884912461773321</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.659308963680703</v>
+        <v>-6.738400963208003</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.33377741714411</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.25516753403639</v>
+        <v>-23.25948452709987</v>
       </c>
       <c r="F88" t="n">
-        <v>3.907523936657236</v>
+        <v>1.918167486482076</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.607373043733466</v>
+        <v>-6.72888206683812</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.13546805657814</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.71982110023363</v>
+        <v>-24.6397782798085</v>
       </c>
       <c r="F89" t="n">
-        <v>3.674596982496807</v>
+        <v>1.692564264608286</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.256767694286394</v>
+        <v>-6.509067429094756</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.93087780218781</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.28054854037262</v>
+        <v>-26.22335693804345</v>
       </c>
       <c r="F90" t="n">
-        <v>3.851461694914323</v>
+        <v>1.857318907016453</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.256288571613436</v>
+        <v>-6.567373724989584</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.71428632480193</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.07058018058366</v>
+        <v>-27.92195926083631</v>
       </c>
       <c r="F91" t="n">
-        <v>3.728371169026005</v>
+        <v>1.729241594123882</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.082332818281735</v>
+        <v>-6.469701145802357</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.49548610639989</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.83779971475368</v>
+        <v>-29.62745019430466</v>
       </c>
       <c r="F92" t="n">
-        <v>3.691855176737017</v>
+        <v>1.63528466015551</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.08406841571949</v>
+        <v>-6.496365789254511</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.28002772558699</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.50874737020383</v>
+        <v>-31.30785318903543</v>
       </c>
       <c r="F93" t="n">
-        <v>3.696900631823673</v>
+        <v>1.572847153458139</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.087798727958946</v>
+        <v>-6.548819943929642</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.07386468952701</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.61653267821971</v>
+        <v>-33.32639212119921</v>
       </c>
       <c r="F94" t="n">
-        <v>3.565938804879623</v>
+        <v>1.444691616455698</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.846218231644078</v>
+        <v>-6.495901333602154</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.89216341014396</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.72967878226515</v>
+        <v>-35.39017147840597</v>
       </c>
       <c r="F95" t="n">
-        <v>3.454000103654738</v>
+        <v>1.342570041019578</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.716023978778133</v>
+        <v>-6.553440055418876</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.74404534595372</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.84263665954622</v>
+        <v>-37.4911292883322</v>
       </c>
       <c r="F96" t="n">
-        <v>3.457921087162004</v>
+        <v>1.362595413146462</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.602775023712915</v>
+        <v>-6.586900418416042</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.64194453133331</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.21654038934201</v>
+        <v>-39.80832298297521</v>
       </c>
       <c r="F97" t="n">
-        <v>3.172055966646619</v>
+        <v>1.148999592137815</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.589863156577392</v>
+        <v>-6.714229713257975</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.59727024239797</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.30483811598636</v>
+        <v>-41.88850740272392</v>
       </c>
       <c r="F98" t="n">
-        <v>3.225282584406723</v>
+        <v>1.185060906788179</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.600589637643404</v>
+        <v>-6.824374148962702</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.6106839492467</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.80053922935417</v>
+        <v>-44.34102147393283</v>
       </c>
       <c r="F99" t="n">
-        <v>2.779649608487425</v>
+        <v>0.8828811703579004</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.308178136933221</v>
+        <v>-6.739471655711857</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.70211296049719</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.38507848650069</v>
+        <v>-46.770290761993</v>
       </c>
       <c r="F100" t="n">
-        <v>2.469295452575664</v>
+        <v>0.6310973167117806</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.398815435238957</v>
+        <v>-7.03497300876193</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.83867292970762</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.43532629495156</v>
+        <v>-48.83952380635981</v>
       </c>
       <c r="F101" t="n">
-        <v>2.548184467380204</v>
+        <v>0.7523837990662067</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.585575497555108</v>
+        <v>-7.292036989824318</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.06939930160791</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.58330779517549</v>
+        <v>-51.05972693827353</v>
       </c>
       <c r="F102" t="n">
-        <v>2.238915670992898</v>
+        <v>0.5066329798938598</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.611741462306837</v>
+        <v>-7.543732841346833</v>
       </c>
     </row>
   </sheetData>
